--- a/交易手续费.xlsx
+++ b/交易手续费.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="期货手续费" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,6 @@
     <t>0.0000005(双向)</t>
   </si>
   <si>
-    <t>期货</t>
-  </si>
-  <si>
     <t>交易所手续费(非平今)</t>
   </si>
   <si>
@@ -292,6 +289,10 @@
   </si>
   <si>
     <t>每手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股指期货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -693,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -890,29 +891,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
         <v>1.2006999999999999E-4</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
         <v>3.0006999999999999E-4</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="9">
         <v>50</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1384,29 +1385,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
         <v>1.0007E-4</v>
       </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
         <v>1.0007E-4</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="9">
         <v>10</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2097,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2111,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2189,7 +2190,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2211,10 +2212,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2222,10 +2223,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
         <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2281,7 +2282,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2302,7 +2303,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>75</v>
@@ -2314,7 +2315,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>75</v>
@@ -2326,19 +2327,19 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>75</v>
